--- a/Data/Russian_Universities.xlsx
+++ b/Data/Russian_Universities.xlsx
@@ -205,25 +205,25 @@
     <t>56</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
+    <t>E.1</t>
+  </si>
+  <si>
+    <t>E.2</t>
+  </si>
+  <si>
+    <t>E.3</t>
+  </si>
+  <si>
+    <t>E.4</t>
+  </si>
+  <si>
+    <t>E.5</t>
+  </si>
+  <si>
+    <t>E.6</t>
+  </si>
+  <si>
+    <t>E.8</t>
   </si>
   <si>
     <t>MSU</t>

--- a/Data/Russian_Universities.xlsx
+++ b/Data/Russian_Universities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="231">
   <si>
     <t>University</t>
   </si>
@@ -706,58 +706,7 @@
     <t>Volgograd</t>
   </si>
   <si>
-    <t>201-250</t>
-  </si>
-  <si>
-    <t>1001+</t>
-  </si>
-  <si>
-    <t>801-1000</t>
-  </si>
-  <si>
-    <t>251-300</t>
-  </si>
-  <si>
-    <t>401-500</t>
-  </si>
-  <si>
-    <t>601-800</t>
-  </si>
-  <si>
-    <t>501-600</t>
-  </si>
-  <si>
-    <t>651-700</t>
-  </si>
-  <si>
-    <t>751-800</t>
-  </si>
-  <si>
-    <t>521-530</t>
-  </si>
-  <si>
-    <t>601-650</t>
-  </si>
-  <si>
-    <t>531-540</t>
-  </si>
-  <si>
-    <t>541-550</t>
-  </si>
-  <si>
-    <t>901-1000</t>
-  </si>
-  <si>
-    <t>601-700</t>
-  </si>
-  <si>
-    <t>301-400</t>
-  </si>
-  <si>
-    <t>801-900</t>
-  </si>
-  <si>
-    <t>701-800</t>
+    <t>1001</t>
   </si>
 </sst>
 </file>
@@ -1918,8 +1867,8 @@
       <c r="D3" t="s">
         <v>212</v>
       </c>
-      <c r="E3" t="s">
-        <v>230</v>
+      <c r="E3">
+        <v>242</v>
       </c>
       <c r="F3">
         <v>302</v>
@@ -1927,8 +1876,8 @@
       <c r="G3">
         <v>539</v>
       </c>
-      <c r="H3" t="s">
-        <v>234</v>
+      <c r="H3">
+        <v>499</v>
       </c>
       <c r="I3">
         <v>6483</v>
@@ -2311,10 +2260,10 @@
         <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="F4">
+        <v>669</v>
       </c>
       <c r="I4">
         <v>14283</v>
@@ -2696,8 +2645,8 @@
       <c r="D5" t="s">
         <v>212</v>
       </c>
-      <c r="E5" t="s">
-        <v>232</v>
+      <c r="E5">
+        <v>983</v>
       </c>
       <c r="F5">
         <v>284</v>
@@ -3082,8 +3031,8 @@
       <c r="D6" t="s">
         <v>212</v>
       </c>
-      <c r="E6" t="s">
-        <v>233</v>
+      <c r="E6">
+        <v>278</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -3091,8 +3040,8 @@
       <c r="G6">
         <v>879</v>
       </c>
-      <c r="H6" t="s">
-        <v>243</v>
+      <c r="H6">
+        <v>983</v>
       </c>
       <c r="I6">
         <v>28755</v>
@@ -3474,8 +3423,8 @@
       <c r="D7" t="s">
         <v>212</v>
       </c>
-      <c r="E7" t="s">
-        <v>234</v>
+      <c r="E7">
+        <v>437</v>
       </c>
       <c r="F7">
         <v>329</v>
@@ -3483,8 +3432,8 @@
       <c r="G7">
         <v>726</v>
       </c>
-      <c r="H7" t="s">
-        <v>244</v>
+      <c r="H7">
+        <v>638</v>
       </c>
       <c r="I7">
         <v>5586</v>
@@ -4249,8 +4198,8 @@
       <c r="D9" t="s">
         <v>212</v>
       </c>
-      <c r="E9" t="s">
-        <v>232</v>
+      <c r="E9">
+        <v>953</v>
       </c>
       <c r="F9">
         <v>392</v>
@@ -4638,8 +4587,8 @@
       <c r="D10" t="s">
         <v>212</v>
       </c>
-      <c r="E10" t="s">
-        <v>235</v>
+      <c r="E10">
+        <v>682</v>
       </c>
       <c r="F10">
         <v>451</v>
@@ -5027,8 +4976,8 @@
       <c r="D11" t="s">
         <v>212</v>
       </c>
-      <c r="F11" t="s">
-        <v>238</v>
+      <c r="F11">
+        <v>792</v>
       </c>
       <c r="I11">
         <v>17787</v>
@@ -5410,8 +5359,8 @@
       <c r="D12" t="s">
         <v>214</v>
       </c>
-      <c r="E12" t="s">
-        <v>235</v>
+      <c r="E12">
+        <v>644</v>
       </c>
       <c r="F12">
         <v>234</v>
@@ -5419,8 +5368,8 @@
       <c r="G12">
         <v>560</v>
       </c>
-      <c r="H12" t="s">
-        <v>245</v>
+      <c r="H12">
+        <v>316</v>
       </c>
       <c r="I12">
         <v>19277</v>
@@ -5802,8 +5751,8 @@
       <c r="D13" t="s">
         <v>214</v>
       </c>
-      <c r="E13" t="s">
-        <v>234</v>
+      <c r="E13">
+        <v>447</v>
       </c>
       <c r="F13">
         <v>436</v>
@@ -5811,8 +5760,8 @@
       <c r="G13">
         <v>1002</v>
       </c>
-      <c r="H13" t="s">
-        <v>246</v>
+      <c r="H13">
+        <v>853</v>
       </c>
       <c r="I13">
         <v>12127</v>
@@ -6194,8 +6143,8 @@
       <c r="D14" t="s">
         <v>214</v>
       </c>
-      <c r="E14" t="s">
-        <v>236</v>
+      <c r="E14">
+        <v>521</v>
       </c>
       <c r="F14">
         <v>439</v>
@@ -6584,10 +6533,10 @@
         <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F15" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="F15">
+        <v>809</v>
       </c>
       <c r="I15">
         <v>17135</v>
@@ -6969,8 +6918,8 @@
       <c r="D16" t="s">
         <v>216</v>
       </c>
-      <c r="E16" t="s">
-        <v>236</v>
+      <c r="E16">
+        <v>594</v>
       </c>
       <c r="F16">
         <v>268</v>
@@ -6978,8 +6927,8 @@
       <c r="G16">
         <v>983</v>
       </c>
-      <c r="H16" t="s">
-        <v>246</v>
+      <c r="H16">
+        <v>842</v>
       </c>
       <c r="I16">
         <v>13578</v>
@@ -7361,8 +7310,8 @@
       <c r="D17" t="s">
         <v>216</v>
       </c>
-      <c r="E17" t="s">
-        <v>235</v>
+      <c r="E17">
+        <v>640</v>
       </c>
       <c r="F17">
         <v>387</v>
@@ -7370,8 +7319,8 @@
       <c r="G17">
         <v>1399</v>
       </c>
-      <c r="H17" t="s">
-        <v>246</v>
+      <c r="H17">
+        <v>847</v>
       </c>
       <c r="I17">
         <v>11720</v>
@@ -7753,8 +7702,8 @@
       <c r="D18" t="s">
         <v>217</v>
       </c>
-      <c r="E18" t="s">
-        <v>236</v>
+      <c r="E18">
+        <v>542</v>
       </c>
       <c r="F18">
         <v>231</v>
@@ -7762,8 +7711,8 @@
       <c r="G18">
         <v>610</v>
       </c>
-      <c r="H18" t="s">
-        <v>234</v>
+      <c r="H18">
+        <v>449</v>
       </c>
       <c r="I18">
         <v>7690</v>
@@ -8146,10 +8095,10 @@
         <v>217</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="F19">
+        <v>929</v>
       </c>
       <c r="I19">
         <v>13234</v>
@@ -8532,10 +8481,10 @@
         <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F20" t="s">
-        <v>239</v>
+        <v>230</v>
+      </c>
+      <c r="F20">
+        <v>529</v>
       </c>
       <c r="I20">
         <v>17897</v>
@@ -8917,8 +8866,8 @@
       <c r="D21" t="s">
         <v>219</v>
       </c>
-      <c r="E21" t="s">
-        <v>235</v>
+      <c r="E21">
+        <v>601</v>
       </c>
       <c r="F21">
         <v>392</v>
@@ -8926,8 +8875,8 @@
       <c r="G21">
         <v>1090</v>
       </c>
-      <c r="H21" t="s">
-        <v>246</v>
+      <c r="H21">
+        <v>860</v>
       </c>
       <c r="I21">
         <v>32358</v>
@@ -9310,10 +9259,10 @@
         <v>220</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F22" t="s">
-        <v>240</v>
+        <v>230</v>
+      </c>
+      <c r="F22">
+        <v>607</v>
       </c>
       <c r="G22">
         <v>1505</v>
@@ -9699,7 +9648,7 @@
         <v>221</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23">
         <v>364</v>
@@ -9707,8 +9656,8 @@
       <c r="G23">
         <v>1198</v>
       </c>
-      <c r="H23" t="s">
-        <v>247</v>
+      <c r="H23">
+        <v>703</v>
       </c>
       <c r="I23">
         <v>33458</v>
@@ -10091,10 +10040,10 @@
         <v>222</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
-      </c>
-      <c r="F24" t="s">
-        <v>241</v>
+        <v>230</v>
+      </c>
+      <c r="F24">
+        <v>535</v>
       </c>
       <c r="G24">
         <v>1804</v>
@@ -10480,10 +10429,10 @@
         <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="F25">
+        <v>914</v>
       </c>
       <c r="I25">
         <v>24762</v>
@@ -10866,10 +10815,10 @@
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" t="s">
-        <v>242</v>
+        <v>230</v>
+      </c>
+      <c r="F26">
+        <v>547</v>
       </c>
       <c r="G26">
         <v>1489</v>
@@ -11254,8 +11203,8 @@
       <c r="D27" t="s">
         <v>214</v>
       </c>
-      <c r="E27" t="s">
-        <v>232</v>
+      <c r="E27">
+        <v>922</v>
       </c>
       <c r="I27">
         <v>7705</v>
@@ -11638,7 +11587,7 @@
         <v>225</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I28">
         <v>14804</v>
@@ -12021,7 +11970,7 @@
         <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I29">
         <v>16395</v>
@@ -12404,7 +12353,7 @@
         <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I30">
         <v>9204</v>
@@ -12787,7 +12736,7 @@
         <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31">
         <v>24807</v>
@@ -13170,7 +13119,7 @@
         <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I32">
         <v>18959</v>
@@ -13553,7 +13502,7 @@
         <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I33">
         <v>14069</v>
@@ -13936,7 +13885,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I34">
         <v>13587</v>
@@ -14319,7 +14268,7 @@
         <v>227</v>
       </c>
       <c r="E35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I35">
         <v>12075</v>
@@ -14702,7 +14651,7 @@
         <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I36">
         <v>8225</v>
@@ -15085,7 +15034,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I37">
         <v>15903</v>
@@ -15468,7 +15417,7 @@
         <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G38">
         <v>1859</v>
@@ -15854,7 +15803,7 @@
         <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I39">
         <v>8996</v>
@@ -16237,7 +16186,7 @@
         <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I40">
         <v>13035</v>
@@ -16620,7 +16569,7 @@
         <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I41">
         <v>14043</v>
@@ -17003,7 +16952,7 @@
         <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I42">
         <v>610</v>

--- a/Data/Russian_Universities.xlsx
+++ b/Data/Russian_Universities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="237">
   <si>
     <t>University</t>
   </si>
@@ -404,6 +404,24 @@
   </si>
   <si>
     <t>E.8</t>
+  </si>
+  <si>
+    <t>2.1_2_3</t>
+  </si>
+  <si>
+    <t>2.4_5_6</t>
+  </si>
+  <si>
+    <t>3.1_2</t>
+  </si>
+  <si>
+    <t>6.1_2</t>
+  </si>
+  <si>
+    <t>13_14</t>
+  </si>
+  <si>
+    <t>40_41_42</t>
   </si>
   <si>
     <t>MSU</t>
@@ -1064,13 +1082,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DZ42"/>
+  <dimension ref="A1:EF42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:130">
+    <row r="1" spans="1:136">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,19 +1479,37 @@
       <c r="DZ1" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="2" spans="1:130">
+    <row r="2" spans="1:136">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B2">
         <v>1725</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E2">
         <v>189</v>
@@ -1853,22 +1889,40 @@
       <c r="DZ2">
         <v>11.69</v>
       </c>
+      <c r="EA2">
+        <v>5689.52</v>
+      </c>
+      <c r="EB2">
+        <v>323.41</v>
+      </c>
+      <c r="EC2">
+        <v>7.49</v>
+      </c>
+      <c r="ED2">
+        <v>87.00999999999999</v>
+      </c>
+      <c r="EE2">
+        <v>2</v>
+      </c>
+      <c r="EF2">
+        <v>1414686</v>
+      </c>
     </row>
-    <row r="3" spans="1:130">
+    <row r="3" spans="1:136">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E3">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3">
         <v>302</v>
@@ -1877,7 +1931,7 @@
         <v>539</v>
       </c>
       <c r="H3">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="I3">
         <v>6483</v>
@@ -2245,25 +2299,43 @@
       <c r="DZ3">
         <v>6.7</v>
       </c>
+      <c r="EA3">
+        <v>19814.98</v>
+      </c>
+      <c r="EB3">
+        <v>799.4000000000001</v>
+      </c>
+      <c r="EC3">
+        <v>11</v>
+      </c>
+      <c r="ED3">
+        <v>68.69999999999999</v>
+      </c>
+      <c r="EE3">
+        <v>1</v>
+      </c>
+      <c r="EF3">
+        <v>212961</v>
+      </c>
     </row>
-    <row r="4" spans="1:130">
+    <row r="4" spans="1:136">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B4">
         <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F4">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="I4">
         <v>14283</v>
@@ -2631,22 +2703,40 @@
       <c r="DZ4">
         <v>5.1</v>
       </c>
+      <c r="EA4">
+        <v>1062.43</v>
+      </c>
+      <c r="EB4">
+        <v>269.27</v>
+      </c>
+      <c r="EC4">
+        <v>6.47</v>
+      </c>
+      <c r="ED4">
+        <v>74.58</v>
+      </c>
+      <c r="EE4">
+        <v>1</v>
+      </c>
+      <c r="EF4">
+        <v>243967</v>
+      </c>
     </row>
-    <row r="5" spans="1:130">
+    <row r="5" spans="1:136">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E5">
-        <v>983</v>
+        <v>803</v>
       </c>
       <c r="F5">
         <v>284</v>
@@ -3017,22 +3107,40 @@
       <c r="DZ5">
         <v>5.23</v>
       </c>
+      <c r="EA5">
+        <v>3458.24</v>
+      </c>
+      <c r="EB5">
+        <v>394.7</v>
+      </c>
+      <c r="EC5">
+        <v>5.13</v>
+      </c>
+      <c r="ED5">
+        <v>59.67</v>
+      </c>
+      <c r="EE5">
+        <v>3</v>
+      </c>
+      <c r="EF5">
+        <v>373545</v>
+      </c>
     </row>
-    <row r="6" spans="1:130">
+    <row r="6" spans="1:136">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>1766</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E6">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -3041,7 +3149,7 @@
         <v>879</v>
       </c>
       <c r="H6">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="I6">
         <v>28755</v>
@@ -3409,22 +3517,40 @@
       <c r="DZ6">
         <v>4.27</v>
       </c>
+      <c r="EA6">
+        <v>1821.17</v>
+      </c>
+      <c r="EB6">
+        <v>328.54</v>
+      </c>
+      <c r="EC6">
+        <v>9.56</v>
+      </c>
+      <c r="ED6">
+        <v>65.04000000000001</v>
+      </c>
+      <c r="EE6">
+        <v>1</v>
+      </c>
+      <c r="EF6">
+        <v>391661</v>
+      </c>
     </row>
-    <row r="7" spans="1:130">
+    <row r="7" spans="1:136">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E7">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="F7">
         <v>329</v>
@@ -3433,7 +3559,7 @@
         <v>726</v>
       </c>
       <c r="H7">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="I7">
         <v>5586</v>
@@ -3801,19 +3927,37 @@
       <c r="DZ7">
         <v>7.72</v>
       </c>
+      <c r="EA7">
+        <v>8859.85</v>
+      </c>
+      <c r="EB7">
+        <v>900.9299999999998</v>
+      </c>
+      <c r="EC7">
+        <v>21.83</v>
+      </c>
+      <c r="ED7">
+        <v>73.7</v>
+      </c>
+      <c r="EE7">
+        <v>2</v>
+      </c>
+      <c r="EF7">
+        <v>224402</v>
+      </c>
     </row>
-    <row r="8" spans="1:130">
+    <row r="8" spans="1:136">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B8">
         <v>1758</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F8">
         <v>366</v>
@@ -4184,22 +4328,40 @@
       <c r="DZ8">
         <v>7.52</v>
       </c>
+      <c r="EA8">
+        <v>587</v>
+      </c>
+      <c r="EB8">
+        <v>421.74</v>
+      </c>
+      <c r="EC8">
+        <v>13.17</v>
+      </c>
+      <c r="ED8">
+        <v>61.48</v>
+      </c>
+      <c r="EE8">
+        <v>1</v>
+      </c>
+      <c r="EF8">
+        <v>132492</v>
+      </c>
     </row>
-    <row r="9" spans="1:130">
+    <row r="9" spans="1:136">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B9">
         <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E9">
-        <v>953</v>
+        <v>806</v>
       </c>
       <c r="F9">
         <v>392</v>
@@ -4573,22 +4735,40 @@
       <c r="DZ9">
         <v>5.03</v>
       </c>
+      <c r="EA9">
+        <v>1765.91</v>
+      </c>
+      <c r="EB9">
+        <v>625.99</v>
+      </c>
+      <c r="EC9">
+        <v>28.49</v>
+      </c>
+      <c r="ED9">
+        <v>73.77000000000001</v>
+      </c>
+      <c r="EE9">
+        <v>2</v>
+      </c>
+      <c r="EF9">
+        <v>502258</v>
+      </c>
     </row>
-    <row r="10" spans="1:130">
+    <row r="10" spans="1:136">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B10">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E10">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="F10">
         <v>451</v>
@@ -4962,22 +5142,40 @@
       <c r="DZ10">
         <v>5.25</v>
       </c>
+      <c r="EA10">
+        <v>8488.619999999999</v>
+      </c>
+      <c r="EB10">
+        <v>675.5699999999999</v>
+      </c>
+      <c r="EC10">
+        <v>26.14</v>
+      </c>
+      <c r="ED10">
+        <v>79.53</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>300057</v>
+      </c>
     </row>
-    <row r="11" spans="1:130">
+    <row r="11" spans="1:136">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F11">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="I11">
         <v>17787</v>
@@ -5345,22 +5543,40 @@
       <c r="DZ11">
         <v>4.64</v>
       </c>
+      <c r="EA11">
+        <v>1247.98</v>
+      </c>
+      <c r="EB11">
+        <v>913.35</v>
+      </c>
+      <c r="EC11">
+        <v>7.24</v>
+      </c>
+      <c r="ED11">
+        <v>75.17</v>
+      </c>
+      <c r="EE11">
+        <v>1</v>
+      </c>
+      <c r="EF11">
+        <v>153391</v>
+      </c>
     </row>
-    <row r="12" spans="1:130">
+    <row r="12" spans="1:136">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>1771</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E12">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="F12">
         <v>234</v>
@@ -5369,7 +5585,7 @@
         <v>560</v>
       </c>
       <c r="H12">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I12">
         <v>19277</v>
@@ -5737,22 +5953,40 @@
       <c r="DZ12">
         <v>15.21</v>
       </c>
+      <c r="EA12">
+        <v>5403.9</v>
+      </c>
+      <c r="EB12">
+        <v>358.34</v>
+      </c>
+      <c r="EC12">
+        <v>13.87</v>
+      </c>
+      <c r="ED12">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>737215</v>
+      </c>
     </row>
-    <row r="13" spans="1:130">
+    <row r="13" spans="1:136">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E13">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F13">
         <v>436</v>
@@ -5761,7 +5995,7 @@
         <v>1002</v>
       </c>
       <c r="H13">
-        <v>853</v>
+        <v>808</v>
       </c>
       <c r="I13">
         <v>12127</v>
@@ -6129,22 +6363,40 @@
       <c r="DZ13">
         <v>4.12</v>
       </c>
+      <c r="EA13">
+        <v>4380.209999999999</v>
+      </c>
+      <c r="EB13">
+        <v>859.96</v>
+      </c>
+      <c r="EC13">
+        <v>17.21</v>
+      </c>
+      <c r="ED13">
+        <v>71.75</v>
+      </c>
+      <c r="EE13">
+        <v>1</v>
+      </c>
+      <c r="EF13">
+        <v>182935</v>
+      </c>
     </row>
-    <row r="14" spans="1:130">
+    <row r="14" spans="1:136">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E14">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F14">
         <v>439</v>
@@ -6518,25 +6770,43 @@
       <c r="DZ14">
         <v>4.53</v>
       </c>
+      <c r="EA14">
+        <v>8836.26</v>
+      </c>
+      <c r="EB14">
+        <v>533.53</v>
+      </c>
+      <c r="EC14">
+        <v>15.38</v>
+      </c>
+      <c r="ED14">
+        <v>76.38</v>
+      </c>
+      <c r="EE14">
+        <v>2</v>
+      </c>
+      <c r="EF14">
+        <v>505393</v>
+      </c>
     </row>
-    <row r="15" spans="1:130">
+    <row r="15" spans="1:136">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B15">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F15">
-        <v>809</v>
+        <v>937</v>
       </c>
       <c r="I15">
         <v>17135</v>
@@ -6904,22 +7174,40 @@
       <c r="DZ15">
         <v>5.51</v>
       </c>
+      <c r="EA15">
+        <v>433.36</v>
+      </c>
+      <c r="EB15">
+        <v>210.37</v>
+      </c>
+      <c r="EC15">
+        <v>3.73</v>
+      </c>
+      <c r="ED15">
+        <v>77.53999999999999</v>
+      </c>
+      <c r="EE15">
+        <v>2</v>
+      </c>
+      <c r="EF15">
+        <v>168177</v>
+      </c>
     </row>
-    <row r="16" spans="1:130">
+    <row r="16" spans="1:136">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B16">
         <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E16">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F16">
         <v>268</v>
@@ -6928,7 +7216,7 @@
         <v>983</v>
       </c>
       <c r="H16">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="I16">
         <v>13578</v>
@@ -7296,22 +7584,40 @@
       <c r="DZ16">
         <v>5.02</v>
       </c>
+      <c r="EA16">
+        <v>4537.320000000001</v>
+      </c>
+      <c r="EB16">
+        <v>852.5899999999999</v>
+      </c>
+      <c r="EC16">
+        <v>20.74</v>
+      </c>
+      <c r="ED16">
+        <v>75.02</v>
+      </c>
+      <c r="EE16">
+        <v>1</v>
+      </c>
+      <c r="EF16">
+        <v>223812</v>
+      </c>
     </row>
-    <row r="17" spans="1:130">
+    <row r="17" spans="1:136">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>296</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E17">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="F17">
         <v>387</v>
@@ -7320,7 +7626,7 @@
         <v>1399</v>
       </c>
       <c r="H17">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="I17">
         <v>11720</v>
@@ -7688,22 +7994,40 @@
       <c r="DZ17">
         <v>7.36</v>
       </c>
+      <c r="EA17">
+        <v>6424.26</v>
+      </c>
+      <c r="EB17">
+        <v>513.77</v>
+      </c>
+      <c r="EC17">
+        <v>27.92</v>
+      </c>
+      <c r="ED17">
+        <v>75</v>
+      </c>
+      <c r="EE17">
+        <v>1</v>
+      </c>
+      <c r="EF17">
+        <v>310361</v>
+      </c>
     </row>
-    <row r="18" spans="1:130">
+    <row r="18" spans="1:136">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B18">
         <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E18">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="F18">
         <v>231</v>
@@ -7712,7 +8036,7 @@
         <v>610</v>
       </c>
       <c r="H18">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="I18">
         <v>7690</v>
@@ -8080,25 +8404,43 @@
       <c r="DZ18">
         <v>6.64</v>
       </c>
+      <c r="EA18">
+        <v>21056.15</v>
+      </c>
+      <c r="EB18">
+        <v>928.25</v>
+      </c>
+      <c r="EC18">
+        <v>5.72</v>
+      </c>
+      <c r="ED18">
+        <v>67.19999999999999</v>
+      </c>
+      <c r="EE18">
+        <v>1</v>
+      </c>
+      <c r="EF18">
+        <v>272107</v>
+      </c>
     </row>
-    <row r="19" spans="1:130">
+    <row r="19" spans="1:136">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19">
         <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F19">
-        <v>929</v>
+        <v>978</v>
       </c>
       <c r="I19">
         <v>13234</v>
@@ -8466,25 +8808,43 @@
       <c r="DZ19">
         <v>4.52</v>
       </c>
+      <c r="EA19">
+        <v>2203.42</v>
+      </c>
+      <c r="EB19">
+        <v>460.25</v>
+      </c>
+      <c r="EC19">
+        <v>17.16</v>
+      </c>
+      <c r="ED19">
+        <v>69.97</v>
+      </c>
+      <c r="EE19">
+        <v>2</v>
+      </c>
+      <c r="EF19">
+        <v>188125</v>
+      </c>
     </row>
-    <row r="20" spans="1:130">
+    <row r="20" spans="1:136">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B20">
         <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F20">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I20">
         <v>17897</v>
@@ -8852,22 +9212,40 @@
       <c r="DZ20">
         <v>4.27</v>
       </c>
+      <c r="EA20">
+        <v>1468.08</v>
+      </c>
+      <c r="EB20">
+        <v>562.64</v>
+      </c>
+      <c r="EC20">
+        <v>7.7</v>
+      </c>
+      <c r="ED20">
+        <v>83.51000000000001</v>
+      </c>
+      <c r="EE20">
+        <v>2</v>
+      </c>
+      <c r="EF20">
+        <v>182746</v>
+      </c>
     </row>
-    <row r="21" spans="1:130">
+    <row r="21" spans="1:136">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B21">
         <v>1519</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E21">
-        <v>601</v>
+        <v>698</v>
       </c>
       <c r="F21">
         <v>392</v>
@@ -8876,7 +9254,7 @@
         <v>1090</v>
       </c>
       <c r="H21">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="I21">
         <v>32358</v>
@@ -9244,25 +9622,43 @@
       <c r="DZ21">
         <v>5.01</v>
       </c>
+      <c r="EA21">
+        <v>1645.78</v>
+      </c>
+      <c r="EB21">
+        <v>390.77</v>
+      </c>
+      <c r="EC21">
+        <v>15.71</v>
+      </c>
+      <c r="ED21">
+        <v>68.91</v>
+      </c>
+      <c r="EE21">
+        <v>1</v>
+      </c>
+      <c r="EF21">
+        <v>565621</v>
+      </c>
     </row>
-    <row r="22" spans="1:130">
+    <row r="22" spans="1:136">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B22">
         <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F22">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="G22">
         <v>1505</v>
@@ -9633,22 +10029,40 @@
       <c r="DZ22">
         <v>5.04</v>
       </c>
+      <c r="EA22">
+        <v>1218.54</v>
+      </c>
+      <c r="EB22">
+        <v>260.02</v>
+      </c>
+      <c r="EC22">
+        <v>4.49</v>
+      </c>
+      <c r="ED22">
+        <v>75.73</v>
+      </c>
+      <c r="EE22">
+        <v>1</v>
+      </c>
+      <c r="EF22">
+        <v>190939</v>
+      </c>
     </row>
-    <row r="23" spans="1:130">
+    <row r="23" spans="1:136">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B23">
         <v>313</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F23">
         <v>364</v>
@@ -9657,7 +10071,7 @@
         <v>1198</v>
       </c>
       <c r="H23">
-        <v>703</v>
+        <v>776</v>
       </c>
       <c r="I23">
         <v>33458</v>
@@ -10025,25 +10439,43 @@
       <c r="DZ23">
         <v>4.73</v>
       </c>
+      <c r="EA23">
+        <v>1256.08</v>
+      </c>
+      <c r="EB23">
+        <v>321.21</v>
+      </c>
+      <c r="EC23">
+        <v>10.8</v>
+      </c>
+      <c r="ED23">
+        <v>65.47999999999999</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23">
+        <v>404007</v>
+      </c>
     </row>
-    <row r="24" spans="1:130">
+    <row r="24" spans="1:136">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B24">
         <v>1520</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F24">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G24">
         <v>1804</v>
@@ -10414,25 +10846,43 @@
       <c r="DZ24">
         <v>4.58</v>
       </c>
+      <c r="EA24">
+        <v>662.27</v>
+      </c>
+      <c r="EB24">
+        <v>266.94</v>
+      </c>
+      <c r="EC24">
+        <v>9.52</v>
+      </c>
+      <c r="ED24">
+        <v>58.64</v>
+      </c>
+      <c r="EE24">
+        <v>4</v>
+      </c>
+      <c r="EF24">
+        <v>534935</v>
+      </c>
     </row>
-    <row r="25" spans="1:130">
+    <row r="25" spans="1:136">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B25">
         <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F25">
-        <v>914</v>
+        <v>1000</v>
       </c>
       <c r="I25">
         <v>24762</v>
@@ -10800,25 +11250,43 @@
       <c r="DZ25">
         <v>4.09</v>
       </c>
+      <c r="EA25">
+        <v>1904.04</v>
+      </c>
+      <c r="EB25">
+        <v>191.62</v>
+      </c>
+      <c r="EC25">
+        <v>10.41</v>
+      </c>
+      <c r="ED25">
+        <v>66.59</v>
+      </c>
+      <c r="EE25">
+        <v>2</v>
+      </c>
+      <c r="EF25">
+        <v>270394</v>
+      </c>
     </row>
-    <row r="26" spans="1:130">
+    <row r="26" spans="1:136">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B26">
         <v>337</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F26">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G26">
         <v>1489</v>
@@ -11189,22 +11657,40 @@
       <c r="DZ26">
         <v>5.82</v>
       </c>
+      <c r="EA26">
+        <v>2909.89</v>
+      </c>
+      <c r="EB26">
+        <v>294.01</v>
+      </c>
+      <c r="EC26">
+        <v>9.49</v>
+      </c>
+      <c r="ED26">
+        <v>67.22999999999999</v>
+      </c>
+      <c r="EE26">
+        <v>4</v>
+      </c>
+      <c r="EF26">
+        <v>518219</v>
+      </c>
     </row>
-    <row r="27" spans="1:130">
+    <row r="27" spans="1:136">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B27">
         <v>237</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E27">
-        <v>922</v>
+        <v>845</v>
       </c>
       <c r="I27">
         <v>7705</v>
@@ -11572,22 +12058,40 @@
       <c r="DZ27">
         <v>7.75</v>
       </c>
+      <c r="EA27">
+        <v>1044.52</v>
+      </c>
+      <c r="EB27">
+        <v>331.5</v>
+      </c>
+      <c r="EC27">
+        <v>6.49</v>
+      </c>
+      <c r="ED27">
+        <v>90.53</v>
+      </c>
+      <c r="EE27">
+        <v>0</v>
+      </c>
+      <c r="EF27">
+        <v>294914</v>
+      </c>
     </row>
-    <row r="28" spans="1:130">
+    <row r="28" spans="1:136">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I28">
         <v>14804</v>
@@ -11955,22 +12459,40 @@
       <c r="DZ28">
         <v>4.5</v>
       </c>
+      <c r="EA28">
+        <v>3232.9</v>
+      </c>
+      <c r="EB28">
+        <v>882.27</v>
+      </c>
+      <c r="EC28">
+        <v>3.87</v>
+      </c>
+      <c r="ED28">
+        <v>87.58</v>
+      </c>
+      <c r="EE28">
+        <v>2</v>
+      </c>
+      <c r="EF28">
+        <v>107607</v>
+      </c>
     </row>
-    <row r="29" spans="1:130">
+    <row r="29" spans="1:136">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B29">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I29">
         <v>16395</v>
@@ -12338,22 +12860,40 @@
       <c r="DZ29">
         <v>4.6</v>
       </c>
+      <c r="EA29">
+        <v>2452.81</v>
+      </c>
+      <c r="EB29">
+        <v>357.81</v>
+      </c>
+      <c r="EC29">
+        <v>19.64</v>
+      </c>
+      <c r="ED29">
+        <v>81.52</v>
+      </c>
+      <c r="EE29">
+        <v>2</v>
+      </c>
+      <c r="EF29">
+        <v>263478</v>
+      </c>
     </row>
-    <row r="30" spans="1:130">
+    <row r="30" spans="1:136">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B30">
         <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I30">
         <v>9204</v>
@@ -12721,22 +13261,40 @@
       <c r="DZ30">
         <v>6.37</v>
       </c>
+      <c r="EA30">
+        <v>442.47</v>
+      </c>
+      <c r="EB30">
+        <v>315.68</v>
+      </c>
+      <c r="EC30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="ED30">
+        <v>72.74000000000001</v>
+      </c>
+      <c r="EE30">
+        <v>1</v>
+      </c>
+      <c r="EF30">
+        <v>192622</v>
+      </c>
     </row>
-    <row r="31" spans="1:130">
+    <row r="31" spans="1:136">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B31">
         <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I31">
         <v>24807</v>
@@ -13104,22 +13662,40 @@
       <c r="DZ31">
         <v>4.85</v>
       </c>
+      <c r="EA31">
+        <v>1276.83</v>
+      </c>
+      <c r="EB31">
+        <v>145.79</v>
+      </c>
+      <c r="EC31">
+        <v>2.49</v>
+      </c>
+      <c r="ED31">
+        <v>89.36</v>
+      </c>
+      <c r="EE31">
+        <v>1</v>
+      </c>
+      <c r="EF31">
+        <v>301823</v>
+      </c>
     </row>
-    <row r="32" spans="1:130">
+    <row r="32" spans="1:136">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B32">
         <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I32">
         <v>18959</v>
@@ -13487,22 +14063,40 @@
       <c r="DZ32">
         <v>5.51</v>
       </c>
+      <c r="EA32">
+        <v>978.3099999999999</v>
+      </c>
+      <c r="EB32">
+        <v>315.41</v>
+      </c>
+      <c r="EC32">
+        <v>5.76</v>
+      </c>
+      <c r="ED32">
+        <v>70.3</v>
+      </c>
+      <c r="EE32">
+        <v>3</v>
+      </c>
+      <c r="EF32">
+        <v>417478</v>
+      </c>
     </row>
-    <row r="33" spans="1:130">
+    <row r="33" spans="1:136">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B33">
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I33">
         <v>14069</v>
@@ -13870,22 +14464,40 @@
       <c r="DZ33">
         <v>4.36</v>
       </c>
+      <c r="EA33">
+        <v>1560.63</v>
+      </c>
+      <c r="EB33">
+        <v>408.27</v>
+      </c>
+      <c r="EC33">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="ED33">
+        <v>84.53999999999999</v>
+      </c>
+      <c r="EE33">
+        <v>2</v>
+      </c>
+      <c r="EF33">
+        <v>282078</v>
+      </c>
     </row>
-    <row r="34" spans="1:130">
+    <row r="34" spans="1:136">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B34">
         <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I34">
         <v>13587</v>
@@ -14253,22 +14865,40 @@
       <c r="DZ34">
         <v>3.57</v>
       </c>
+      <c r="EA34">
+        <v>875.04</v>
+      </c>
+      <c r="EB34">
+        <v>550.9100000000001</v>
+      </c>
+      <c r="EC34">
+        <v>4.16</v>
+      </c>
+      <c r="ED34">
+        <v>75.25</v>
+      </c>
+      <c r="EE34">
+        <v>2</v>
+      </c>
+      <c r="EF34">
+        <v>240185</v>
+      </c>
     </row>
-    <row r="35" spans="1:130">
+    <row r="35" spans="1:136">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B35">
         <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I35">
         <v>12075</v>
@@ -14636,22 +15266,40 @@
       <c r="DZ35">
         <v>4.5</v>
       </c>
+      <c r="EA35">
+        <v>2282.52</v>
+      </c>
+      <c r="EB35">
+        <v>314.96</v>
+      </c>
+      <c r="EC35">
+        <v>1.38</v>
+      </c>
+      <c r="ED35">
+        <v>69.77</v>
+      </c>
+      <c r="EE35">
+        <v>1</v>
+      </c>
+      <c r="EF35">
+        <v>148289</v>
+      </c>
     </row>
-    <row r="36" spans="1:130">
+    <row r="36" spans="1:136">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B36">
         <v>1595</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I36">
         <v>8225</v>
@@ -15019,22 +15667,40 @@
       <c r="DZ36">
         <v>69.76000000000001</v>
       </c>
+      <c r="EA36">
+        <v>2416.74</v>
+      </c>
+      <c r="EB36">
+        <v>244.02</v>
+      </c>
+      <c r="EC36">
+        <v>6</v>
+      </c>
+      <c r="ED36">
+        <v>80.72999999999999</v>
+      </c>
+      <c r="EE36">
+        <v>2</v>
+      </c>
+      <c r="EF36">
+        <v>248784</v>
+      </c>
     </row>
-    <row r="37" spans="1:130">
+    <row r="37" spans="1:136">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B37">
         <v>1792</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I37">
         <v>15903</v>
@@ -15402,22 +16068,40 @@
       <c r="DZ37">
         <v>61.31</v>
       </c>
+      <c r="EA37">
+        <v>1064.42</v>
+      </c>
+      <c r="EB37">
+        <v>409.44</v>
+      </c>
+      <c r="EC37">
+        <v>15.82</v>
+      </c>
+      <c r="ED37">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="EE37">
+        <v>0</v>
+      </c>
+      <c r="EF37">
+        <v>389995</v>
+      </c>
     </row>
-    <row r="38" spans="1:130">
+    <row r="38" spans="1:136">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B38">
         <v>1507</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G38">
         <v>1859</v>
@@ -15788,22 +16472,40 @@
       <c r="DZ38">
         <v>4.46</v>
       </c>
+      <c r="EA38">
+        <v>2390.79</v>
+      </c>
+      <c r="EB38">
+        <v>364.42</v>
+      </c>
+      <c r="EC38">
+        <v>2.98</v>
+      </c>
+      <c r="ED38">
+        <v>62.48</v>
+      </c>
+      <c r="EE38">
+        <v>0</v>
+      </c>
+      <c r="EF38">
+        <v>679551</v>
+      </c>
     </row>
-    <row r="39" spans="1:130">
+    <row r="39" spans="1:136">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B39">
         <v>247</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I39">
         <v>8996</v>
@@ -16171,22 +16873,40 @@
       <c r="DZ39">
         <v>5.97</v>
       </c>
+      <c r="EA39">
+        <v>1880.68</v>
+      </c>
+      <c r="EB39">
+        <v>339.83</v>
+      </c>
+      <c r="EC39">
+        <v>19.43</v>
+      </c>
+      <c r="ED39">
+        <v>71.12</v>
+      </c>
+      <c r="EE39">
+        <v>2</v>
+      </c>
+      <c r="EF39">
+        <v>135251</v>
+      </c>
     </row>
-    <row r="40" spans="1:130">
+    <row r="40" spans="1:136">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B40">
         <v>318</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I40">
         <v>13035</v>
@@ -16554,22 +17274,40 @@
       <c r="DZ40">
         <v>4.77</v>
       </c>
+      <c r="EA40">
+        <v>1391.67</v>
+      </c>
+      <c r="EB40">
+        <v>234.11</v>
+      </c>
+      <c r="EC40">
+        <v>2.1</v>
+      </c>
+      <c r="ED40">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="EE40">
+        <v>2</v>
+      </c>
+      <c r="EF40">
+        <v>175087</v>
+      </c>
     </row>
-    <row r="41" spans="1:130">
+    <row r="41" spans="1:136">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B41">
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I41">
         <v>14043</v>
@@ -16937,22 +17675,40 @@
       <c r="DZ41">
         <v>3.84</v>
       </c>
+      <c r="EA41">
+        <v>1903.89</v>
+      </c>
+      <c r="EB41">
+        <v>236.33</v>
+      </c>
+      <c r="EC41">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="ED41">
+        <v>74.58</v>
+      </c>
+      <c r="EE41">
+        <v>2</v>
+      </c>
+      <c r="EF41">
+        <v>201182</v>
+      </c>
     </row>
-    <row r="42" spans="1:130">
+    <row r="42" spans="1:136">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B42">
         <v>113493</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I42">
         <v>610</v>
@@ -17319,6 +18075,24 @@
       </c>
       <c r="DZ42">
         <v>6.7</v>
+      </c>
+      <c r="EA42">
+        <v>0</v>
+      </c>
+      <c r="EB42">
+        <v>434.14</v>
+      </c>
+      <c r="EC42">
+        <v>17.05</v>
+      </c>
+      <c r="ED42">
+        <v>27.45</v>
+      </c>
+      <c r="EE42">
+        <v>0</v>
+      </c>
+      <c r="EF42">
+        <v>34451</v>
       </c>
     </row>
   </sheetData>
